--- a/PWLPOS.v2/public/template_data/stok.xlsx
+++ b/PWLPOS.v2/public/template_data/stok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF4E506-58AB-460F-A553-88B51007DC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD296FC-80D4-444E-ABA5-94204D40289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{116EF32D-05C9-4052-BDDF-476F9BD3528E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>barang_id</t>
   </si>
@@ -42,13 +42,13 @@
     <t>2025-04-08 12:20:05</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>stok_tanggal</t>
   </si>
   <si>
     <t>stok_jumlah</t>
+  </si>
+  <si>
+    <t>supplier_id</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,18 +432,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -456,32 +456,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PWLPOS.v2/public/template_data/stok.xlsx
+++ b/PWLPOS.v2/public/template_data/stok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD296FC-80D4-444E-ABA5-94204D40289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB0161-D6A4-4CB6-B824-EC9D0E95C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{116EF32D-05C9-4052-BDDF-476F9BD3528E}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>barang_id</t>
-  </si>
-  <si>
-    <t>2025-04-08 12:20:05</t>
   </si>
   <si>
     <t>stok_tanggal</t>
@@ -96,10 +93,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +416,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,24 +430,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45761.51394675926</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
